--- a/MH_001_v1/Info célula.xlsx
+++ b/MH_001_v1/Info célula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudo\Robótica\Kuka\Programas\MH_001_v1 - (CAAS - Linha 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F6AFC1-79BF-43FE-B104-FBE83CF32827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B563666A-596C-437C-967D-8E2496412384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="9" xr2:uid="{B14CD665-A84C-457D-A793-CB1F498573CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{B14CD665-A84C-457D-A793-CB1F498573CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Processo" sheetId="4" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="Alarmes" sheetId="9" r:id="rId6"/>
     <sheet name="Mensagens" sheetId="10" r:id="rId7"/>
     <sheet name="Rotinas" sheetId="11" r:id="rId8"/>
-    <sheet name="Variaveis" sheetId="12" r:id="rId9"/>
+    <sheet name="Variáveis" sheetId="12" r:id="rId9"/>
     <sheet name="Descrição" sheetId="14" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Acionamentos!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Processo!$A$1:$J$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Rotinas!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Segmentos!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Variáveis!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="458">
   <si>
     <t>Número</t>
   </si>
@@ -96,12 +98,6 @@
     <t>N°</t>
   </si>
   <si>
-    <t>CÓDIGO</t>
-  </si>
-  <si>
-    <t>NOME DO PROCESSO</t>
-  </si>
-  <si>
     <t>Produto</t>
   </si>
   <si>
@@ -888,9 +884,6 @@
     <t>rTool_Buffer</t>
   </si>
   <si>
-    <t>Atribui na garra qual peça vinda de qual operação ela está segurando</t>
-  </si>
-  <si>
     <t>To do</t>
   </si>
   <si>
@@ -981,24 +974,9 @@
     <t>numerica</t>
   </si>
   <si>
-    <t>Guarda qual peça está na garra</t>
-  </si>
-  <si>
     <t>nProcess_Status[3]</t>
   </si>
   <si>
-    <t>Guarda o processo passado, presente, e futuro.</t>
-  </si>
-  <si>
-    <t>Guarda o acionamento passado, presente, e futuro.</t>
-  </si>
-  <si>
-    <t>Guarda o segmento de processo passado, presente, e futuro.</t>
-  </si>
-  <si>
-    <t>nAcionamentos_Status[3]</t>
-  </si>
-  <si>
     <t>nSegProc_Status[3]</t>
   </si>
   <si>
@@ -1168,13 +1146,313 @@
   </si>
   <si>
     <t>Condições de permissíveis</t>
+  </si>
+  <si>
+    <t>rPick_Part</t>
+  </si>
+  <si>
+    <t>Rotina generalizada para pega do produto</t>
+  </si>
+  <si>
+    <t>rDrop_Part</t>
+  </si>
+  <si>
+    <t>Rotina generalizada para depóstio do produto</t>
+  </si>
+  <si>
+    <t>rRefresh_Points_Main</t>
+  </si>
+  <si>
+    <t>Atualiza todos marcados na rotina rAdjust_Points em seus respectivos registradores</t>
+  </si>
+  <si>
+    <t>rCheck_Permissible</t>
+  </si>
+  <si>
+    <t>rCheck_Sensor</t>
+  </si>
+  <si>
+    <t>Chama a verificação dos sensores escolhidos pelo usuário</t>
+  </si>
+  <si>
+    <t>rCheck_Sensor_10</t>
+  </si>
+  <si>
+    <t>Verifica se as condições necessárias para está combinação são satisfeitas</t>
+  </si>
+  <si>
+    <t>rCheck_Sensor_11</t>
+  </si>
+  <si>
+    <t>rCheck_Sensor_20</t>
+  </si>
+  <si>
+    <t>rCheck_Sensor_21</t>
+  </si>
+  <si>
+    <t>PtpOffsExt</t>
+  </si>
+  <si>
+    <t>Rotina auxiliar de offset de pontos PTP</t>
+  </si>
+  <si>
+    <t>LinOffsExt</t>
+  </si>
+  <si>
+    <t>Rotina auxiliar de offset de pontos LIN</t>
+  </si>
+  <si>
+    <t>rDrive</t>
+  </si>
+  <si>
+    <t>rMessage</t>
+  </si>
+  <si>
+    <t>rAlarm</t>
+  </si>
+  <si>
+    <t>Mostra mensagens na TP de acordo com o valor do argumento inserido</t>
+  </si>
+  <si>
+    <t>Mostra alarmes na TP de acordo com o valor do argumento inserido</t>
+  </si>
+  <si>
+    <t>rSet_Process</t>
+  </si>
+  <si>
+    <t>rSet_Part</t>
+  </si>
+  <si>
+    <t>rSet_Station</t>
+  </si>
+  <si>
+    <t>rSet_Tool</t>
+  </si>
+  <si>
+    <t>Atribui para a variavel de processo atual o processo que está sendo realizado</t>
+  </si>
+  <si>
+    <t>Atribui para a variavel de estação atual o estação que está sendo trabalhada</t>
+  </si>
+  <si>
+    <t>Atribui para a variavel de produto atual o produto que está sendo trabalhado</t>
+  </si>
+  <si>
+    <t>Atribui para a variavel de ferramenta atual o ferramenta que está sendo utilizada</t>
+  </si>
+  <si>
+    <t>nIte_001</t>
+  </si>
+  <si>
+    <t>Iterado para a Task Main</t>
+  </si>
+  <si>
+    <t>r1111</t>
+  </si>
+  <si>
+    <t>r1112</t>
+  </si>
+  <si>
+    <t>r1121</t>
+  </si>
+  <si>
+    <t>r1122</t>
+  </si>
+  <si>
+    <t>r1131</t>
+  </si>
+  <si>
+    <t>r1132</t>
+  </si>
+  <si>
+    <t>r2121</t>
+  </si>
+  <si>
+    <t>r2122</t>
+  </si>
+  <si>
+    <t>r2131</t>
+  </si>
+  <si>
+    <t>r2132</t>
+  </si>
+  <si>
+    <t>r2141</t>
+  </si>
+  <si>
+    <t>r2142</t>
+  </si>
+  <si>
+    <t>rReset_Cell</t>
+  </si>
+  <si>
+    <t>Reseta todos os sinais(DI/DO) e todas a variaveis</t>
+  </si>
+  <si>
+    <t>nCicle_Time</t>
+  </si>
+  <si>
+    <t>Tempo de ciclo:
+1 = Ultimo ciclo concluído
+2= Média</t>
+  </si>
+  <si>
+    <t>sAlarm</t>
+  </si>
+  <si>
+    <t>sMessage</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Mensagens de alarme</t>
+  </si>
+  <si>
+    <t>Mensagens gerais sobre o status da célula</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Nome do processo</t>
+  </si>
+  <si>
+    <t>Nome do acionamento</t>
+  </si>
+  <si>
+    <t>di011_Pres_Gripper_2 = TRUE</t>
+  </si>
+  <si>
+    <t>di011_Pres_Gripper_2 = FALSE</t>
+  </si>
+  <si>
+    <t>di014_Gripper_2_Opened = TRUE</t>
+  </si>
+  <si>
+    <t>di014_Gripper_2_Opened = FALSE</t>
+  </si>
+  <si>
+    <t>di015_Gripper_2_Closed = TRUE</t>
+  </si>
+  <si>
+    <t>di015_Gripper_2_Closed = FALSE</t>
+  </si>
+  <si>
+    <t>di023_Op_20_Done = TRUE</t>
+  </si>
+  <si>
+    <t>di023_Op_20_Done = FALSE</t>
+  </si>
+  <si>
+    <t>di024_Op_30_Clear = TRUE</t>
+  </si>
+  <si>
+    <t>di024_Op_30_Clear = FALSE</t>
+  </si>
+  <si>
+    <t>di025_Op_30_Done = TRUE</t>
+  </si>
+  <si>
+    <t>di025_Op_30_Done = FALSE</t>
+  </si>
+  <si>
+    <t>di026_Op_40_Clear = TRUE</t>
+  </si>
+  <si>
+    <t>di026_Op_40_Clear = FALSE</t>
+  </si>
+  <si>
+    <t>di027_Op_40_Done = TRUE</t>
+  </si>
+  <si>
+    <t>di027_Op_40_Done = FALSE</t>
+  </si>
+  <si>
+    <t>Chama a rotina para acionar os atuadores escolhidos pelo usuário
+AR_01 = Tool/Misc que sera acionado
+AR_02 = O tipo de acionamento que sera realizado (abrir, fechar, girar...)</t>
+  </si>
+  <si>
+    <t>nDrive_Status[3]</t>
+  </si>
+  <si>
+    <t>Guarda o processo passado, presente, e futuro.
+1 = Passado
+2 = Presente (atual)
+3 = Futuro (próximo)</t>
+  </si>
+  <si>
+    <t>Guarda o acionamento passado, presente, e futuro.
+1 = Passado
+2 = Presente (atual)
+3 = Futuro (próximo)</t>
+  </si>
+  <si>
+    <t>Guarda o segmento de processo passado, presente, e futuro.
+1 = Passado
+2 = Presente (atual)
+3 = Futuro (próximo)</t>
+  </si>
+  <si>
+    <t>Guarda qual peça está na garra
+1 = Gripper_01
+2 = Gripper_02</t>
+  </si>
+  <si>
+    <t>Atribui na garra qual peça vinda de qual operação ela está segurando:
+AR_01 = A operação Op_XX da aonde a peça vem
+AR_02 = A garra(gripper) que está com está peça</t>
+  </si>
+  <si>
+    <t>Rotina generalizada para depósito do produto</t>
+  </si>
+  <si>
+    <t>Chama a verificação dos permissiveis escolhidos pelo usuário:
+AR_01 = Permissível
+AR_02 = Nivel do permissível</t>
+  </si>
+  <si>
+    <t> nPart_In_Tool[2] = 0</t>
+  </si>
+  <si>
+    <t> nPart_In_Tool[2] = 10</t>
+  </si>
+  <si>
+    <t> nPart_In_Tool[2] = 20</t>
+  </si>
+  <si>
+    <t> nPart_In_Tool[2] = 30</t>
+  </si>
+  <si>
+    <t> nPart_In_Tool[2] = 40</t>
+  </si>
+  <si>
+    <t>nSegment</t>
+  </si>
+  <si>
+    <t>Segmento atual</t>
+  </si>
+  <si>
+    <t>rSet_JobOK</t>
+  </si>
+  <si>
+    <t>Confirma que a operação em questão foi concluída ou não:
+AR_01 = Processo main
+AR_02 = Segmento</t>
+  </si>
+  <si>
+    <t>bJob_OK</t>
+  </si>
+  <si>
+    <t>Informa se o Job em questão foi concluído com sucesso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,8 +1530,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1347,6 +1639,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,7 +1861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1603,11 +1901,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1636,18 +1929,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1664,13 +1945,54 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1725,13 +2047,13 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1751,29 +2073,19 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B4EFE386-18C2-44AA-9A2A-4217DC88D1A0}"/>
@@ -2102,7 +2414,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2128,237 +2440,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="60" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>15</v>
+        <v>419</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
+      <c r="C2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="46">
+      <c r="D2" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="29">
         <v>1</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="F2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="46">
+      <c r="G2" s="29">
         <v>1</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="46">
-        <v>1</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="46" t="str">
+      <c r="H2" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="29" t="str">
         <f t="shared" ref="I2" si="0">CONCATENATE(A2,C2,E2,G2)</f>
         <v>1111</v>
       </c>
-      <c r="J2" s="46" t="str">
+      <c r="J2" s="29" t="str">
         <f t="shared" ref="J2" si="1">CONCATENATE(B2," ",D2," in ",F2," with ",H2)</f>
         <v>Pick Voukiss in Op 10 with Gripper 1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+    <row r="3" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="46">
+      <c r="B3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="29">
+        <v>1</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="46">
-        <v>1</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="46">
+      <c r="G3" s="29">
         <v>2</v>
       </c>
-      <c r="H3" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="46" t="str">
+      <c r="H3" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="29" t="str">
         <f t="shared" ref="I3:I17" si="2">CONCATENATE(A3,C3,E3,G3)</f>
         <v>1112</v>
       </c>
-      <c r="J3" s="46" t="str">
+      <c r="J3" s="29" t="str">
         <f t="shared" ref="J3:J17" si="3">CONCATENATE(B3," ",D3," in ",F3," with ",H3)</f>
         <v>Pick Voukiss in Op 10 with Gripper 2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
+    <row r="4" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="46">
+      <c r="B4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="29">
         <v>1</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="46">
+      <c r="D4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="29">
         <v>2</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="46">
+      <c r="F4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="29">
         <v>1</v>
       </c>
-      <c r="H4" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="46" t="str">
+      <c r="H4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="29" t="str">
         <f t="shared" si="2"/>
         <v>1121</v>
       </c>
-      <c r="J4" s="46" t="str">
+      <c r="J4" s="29" t="str">
         <f t="shared" si="3"/>
         <v>Pick Voukiss in Op 20 with Gripper 1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46">
+    <row r="5" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
         <v>1</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="46">
+      <c r="B5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="29">
         <v>1</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="46">
+      <c r="D5" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="29">
         <v>2</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="46">
+      <c r="F5" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="29">
         <v>2</v>
       </c>
-      <c r="H5" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="46" t="str">
+      <c r="H5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="29" t="str">
         <f t="shared" si="2"/>
         <v>1122</v>
       </c>
-      <c r="J5" s="46" t="str">
+      <c r="J5" s="29" t="str">
         <f t="shared" si="3"/>
         <v>Pick Voukiss in Op 20 with Gripper 2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+    <row r="6" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="46">
+      <c r="B6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="29">
         <v>1</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="46">
+      <c r="D6" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="29">
         <v>3</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="46">
-        <v>1</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="46" t="str">
+      <c r="I6" s="29" t="str">
         <f t="shared" si="2"/>
         <v>1131</v>
       </c>
-      <c r="J6" s="46" t="str">
+      <c r="J6" s="29" t="str">
         <f t="shared" si="3"/>
         <v>Pick Voukiss in Op 30 with Gripper 1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46">
+    <row r="7" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="46">
+      <c r="B7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="46">
+      <c r="D7" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="29">
         <v>3</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="46">
+      <c r="F7" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="29">
         <v>2</v>
       </c>
-      <c r="H7" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="46" t="str">
+      <c r="H7" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="29" t="str">
         <f t="shared" si="2"/>
         <v>1132</v>
       </c>
-      <c r="J7" s="46" t="str">
+      <c r="J7" s="29" t="str">
         <f t="shared" si="3"/>
         <v>Pick Voukiss in Op 30 with Gripper 2</v>
       </c>
@@ -2368,25 +2680,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E8" s="16">
         <v>4</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" s="16">
         <v>1</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" s="16" t="str">
         <f t="shared" si="2"/>
@@ -2402,25 +2714,25 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="16">
         <v>4</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="16">
         <v>2</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I9" s="16" t="str">
         <f t="shared" si="2"/>
@@ -2436,25 +2748,25 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" s="16">
         <v>1</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G10" s="16">
         <v>1</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10" s="16" t="str">
         <f t="shared" si="2"/>
@@ -2470,25 +2782,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11" s="16">
         <v>2</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I11" s="16" t="str">
         <f t="shared" si="2"/>
@@ -2499,215 +2811,215 @@
         <v>Drop Voukiss in Op 10 with Gripper 2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+    <row r="12" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
         <v>2</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="46">
+      <c r="B12" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="29">
         <v>1</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="46">
+      <c r="D12" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="29">
         <v>2</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="46">
+      <c r="F12" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="29">
         <v>1</v>
       </c>
-      <c r="H12" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="46" t="str">
+      <c r="H12" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="29" t="str">
         <f t="shared" si="2"/>
         <v>2121</v>
       </c>
-      <c r="J12" s="46" t="str">
+      <c r="J12" s="29" t="str">
         <f t="shared" si="3"/>
         <v>Drop Voukiss in Op 20 with Gripper 1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46">
+    <row r="13" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
         <v>2</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="46">
+      <c r="B13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="29">
         <v>1</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="46">
+      <c r="D13" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="29">
         <v>2</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="46">
+      <c r="F13" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="29">
         <v>2</v>
       </c>
-      <c r="H13" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="46" t="str">
+      <c r="H13" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="29" t="str">
         <f t="shared" si="2"/>
         <v>2122</v>
       </c>
-      <c r="J13" s="46" t="str">
+      <c r="J13" s="29" t="str">
         <f t="shared" si="3"/>
         <v>Drop Voukiss in Op 20 with Gripper 2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46">
+    <row r="14" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
         <v>2</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="46">
+      <c r="B14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="29">
         <v>1</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="46">
+      <c r="D14" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="29">
         <v>3</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="29">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="46">
-        <v>1</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="46" t="str">
+      <c r="I14" s="29" t="str">
         <f t="shared" si="2"/>
         <v>2131</v>
       </c>
-      <c r="J14" s="46" t="str">
+      <c r="J14" s="29" t="str">
         <f t="shared" si="3"/>
         <v>Drop Voukiss in Op 30 with Gripper 1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46">
+    <row r="15" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29">
         <v>2</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="46">
+      <c r="B15" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="29">
         <v>1</v>
       </c>
-      <c r="D15" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="46">
+      <c r="D15" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="29">
         <v>3</v>
       </c>
-      <c r="F15" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="46">
+      <c r="F15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="29">
         <v>2</v>
       </c>
-      <c r="H15" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="46" t="str">
+      <c r="H15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="29" t="str">
         <f t="shared" si="2"/>
         <v>2132</v>
       </c>
-      <c r="J15" s="46" t="str">
+      <c r="J15" s="29" t="str">
         <f t="shared" si="3"/>
         <v>Drop Voukiss in Op 30 with Gripper 2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46">
+    <row r="16" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
         <v>2</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="46">
+      <c r="B16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="29">
         <v>1</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="46">
+      <c r="D16" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="29">
         <v>4</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="46">
+      <c r="F16" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="29">
         <v>1</v>
       </c>
-      <c r="H16" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="46" t="str">
+      <c r="H16" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="29" t="str">
         <f t="shared" si="2"/>
         <v>2141</v>
       </c>
-      <c r="J16" s="46" t="str">
+      <c r="J16" s="29" t="str">
         <f t="shared" si="3"/>
         <v>Drop Voukiss in Op 40 with Gripper 1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46">
+    <row r="17" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29">
         <v>2</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="46">
+      <c r="B17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="29">
         <v>1</v>
       </c>
-      <c r="D17" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="46">
+      <c r="D17" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="29">
         <v>4</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="29">
+        <v>2</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="46">
-        <v>2</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="46" t="str">
+      <c r="I17" s="29" t="str">
         <f t="shared" si="2"/>
         <v>2142</v>
       </c>
-      <c r="J17" s="46" t="str">
+      <c r="J17" s="29" t="str">
         <f t="shared" si="3"/>
         <v>Drop Voukiss in Op 40 with Gripper 2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J17" xr:uid="{45C19C74-C30C-4C08-A843-10F3301FCE3D}">
@@ -2722,10 +3034,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D64513D-D013-4453-8C57-138CC0BE3E40}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2753,48 +3065,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="90" t="s">
+      <c r="E1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="86" t="s">
+      <c r="N1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="Q1" s="93" t="s">
+      <c r="O1" s="94"/>
+      <c r="Q1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="87" t="s">
-        <v>366</v>
-      </c>
-      <c r="T1" s="94" t="s">
+      <c r="R1" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="T1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="95" t="s">
-        <v>372</v>
+      <c r="U1" s="48" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -2802,46 +3114,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
       </c>
-      <c r="N2" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="46" t="s">
-        <v>88</v>
+      <c r="N2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>86</v>
       </c>
       <c r="Q2" s="3">
         <v>11</v>
       </c>
       <c r="R2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="T2" s="3">
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -2849,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -2858,34 +3170,34 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J3" s="3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
       </c>
-      <c r="N3" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" s="46" t="s">
-        <v>90</v>
+      <c r="N3" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>88</v>
       </c>
       <c r="Q3" s="3">
         <v>10</v>
       </c>
       <c r="R3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="T3" s="3">
         <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -2899,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
@@ -2907,23 +3219,23 @@
       <c r="M4" s="3">
         <v>3</v>
       </c>
-      <c r="N4" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="46" t="s">
-        <v>92</v>
+      <c r="N4" s="29">
+        <v>1121</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="Q4" s="3">
         <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="T4" s="3">
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -2937,7 +3249,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J5" s="3">
         <v>4</v>
@@ -2945,23 +3257,23 @@
       <c r="M5" s="3">
         <v>4</v>
       </c>
-      <c r="N5" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="46" t="s">
-        <v>94</v>
+      <c r="N5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="Q5" s="3">
         <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="T5" s="3">
         <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -2980,17 +3292,17 @@
       <c r="M6" s="3">
         <v>5</v>
       </c>
-      <c r="N6" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" s="46" t="s">
-        <v>96</v>
+      <c r="N6" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="T6" s="3">
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -3009,17 +3321,17 @@
       <c r="M7" s="3">
         <v>6</v>
       </c>
-      <c r="N7" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>98</v>
+      <c r="N7" s="29">
+        <v>1132</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="T7" s="3">
         <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -3038,17 +3350,17 @@
       <c r="M8" s="3">
         <v>7</v>
       </c>
-      <c r="N8" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="46" t="s">
-        <v>100</v>
+      <c r="N8" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="T8" s="3">
         <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -3067,17 +3379,17 @@
       <c r="M9" s="3">
         <v>8</v>
       </c>
-      <c r="N9" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" s="46" t="s">
-        <v>104</v>
+      <c r="N9" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="T9" s="3">
         <v>8</v>
       </c>
       <c r="U9" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -3096,78 +3408,78 @@
       <c r="M10" s="3">
         <v>9</v>
       </c>
-      <c r="N10" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="O10" s="46" t="s">
-        <v>106</v>
+      <c r="N10" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="T10" s="3">
         <v>9</v>
       </c>
-      <c r="U10" s="54" t="s">
-        <v>359</v>
+      <c r="U10" s="35" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M11" s="3">
         <v>10</v>
       </c>
-      <c r="N11" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O11" s="46" t="s">
-        <v>108</v>
+      <c r="N11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>106</v>
       </c>
       <c r="T11" s="3">
         <v>10</v>
       </c>
-      <c r="U11" s="54" t="s">
-        <v>360</v>
+      <c r="U11" s="35" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M12" s="3">
         <v>11</v>
       </c>
-      <c r="N12" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12" s="46" t="s">
-        <v>102</v>
+      <c r="N12" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>11</v>
       </c>
       <c r="U12" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M13" s="3">
         <v>12</v>
       </c>
-      <c r="N13" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" s="46" t="s">
-        <v>110</v>
+      <c r="N13" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="T13" s="3">
         <v>12</v>
       </c>
       <c r="U13" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
       <c r="T14" s="3">
         <v>13</v>
       </c>
       <c r="U14" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -3175,7 +3487,7 @@
         <v>14</v>
       </c>
       <c r="U15" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -3183,7 +3495,175 @@
         <v>15</v>
       </c>
       <c r="U16" t="s">
-        <v>365</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T17" s="3">
+        <v>16</v>
+      </c>
+      <c r="U17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T18" s="3">
+        <v>17</v>
+      </c>
+      <c r="U18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T19" s="3">
+        <v>18</v>
+      </c>
+      <c r="U19" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T20" s="3">
+        <v>19</v>
+      </c>
+      <c r="U20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T21" s="3">
+        <v>20</v>
+      </c>
+      <c r="U21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T22" s="3">
+        <v>21</v>
+      </c>
+      <c r="U22" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T23" s="3">
+        <v>22</v>
+      </c>
+      <c r="U23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T24" s="3">
+        <v>23</v>
+      </c>
+      <c r="U24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T25" s="3">
+        <v>24</v>
+      </c>
+      <c r="U25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T26" s="3">
+        <v>25</v>
+      </c>
+      <c r="U26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T27" s="3">
+        <v>26</v>
+      </c>
+      <c r="U27" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T28" s="3">
+        <v>27</v>
+      </c>
+      <c r="U28" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T29" s="3">
+        <v>28</v>
+      </c>
+      <c r="U29" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T30" s="3">
+        <v>29</v>
+      </c>
+      <c r="U30" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T31" s="3">
+        <v>30</v>
+      </c>
+      <c r="U31" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T32" s="3">
+        <v>31</v>
+      </c>
+      <c r="U32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T33" s="3">
+        <v>32</v>
+      </c>
+      <c r="U33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T34" s="3">
+        <v>33</v>
+      </c>
+      <c r="U34" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="35" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T35" s="3">
+        <v>34</v>
+      </c>
+      <c r="U35" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T36" s="3">
+        <v>35</v>
+      </c>
+      <c r="U36" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T37" s="3">
+        <v>36</v>
+      </c>
+      <c r="U37" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -3200,7 +3680,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3213,24 +3693,24 @@
     <col min="6" max="6" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" s="65" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>16</v>
+      <c r="D1" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3238,19 +3718,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="46" t="str">
+        <v>111</v>
+      </c>
+      <c r="E2" s="29" t="str">
         <f>CONCATENATE(A2,C2)</f>
         <v>11</v>
       </c>
-      <c r="F2" s="46" t="str">
+      <c r="F2" s="29" t="str">
         <f>CONCATENATE(D2," ",B2)</f>
         <v>Open Gripper 1</v>
       </c>
@@ -3260,19 +3740,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="46" t="str">
+        <v>112</v>
+      </c>
+      <c r="E3" s="29" t="str">
         <f t="shared" ref="E3:E5" si="0">CONCATENATE(A3,C3)</f>
         <v>12</v>
       </c>
-      <c r="F3" s="46" t="str">
+      <c r="F3" s="29" t="str">
         <f t="shared" ref="F3:F5" si="1">CONCATENATE(D3," ",B3)</f>
         <v>Close Gripper 1</v>
       </c>
@@ -3282,19 +3762,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="46" t="str">
+        <v>111</v>
+      </c>
+      <c r="E4" s="29" t="str">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F4" s="46" t="str">
+      <c r="F4" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Open Gripper 2</v>
       </c>
@@ -3304,56 +3784,56 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="46" t="str">
+        <v>112</v>
+      </c>
+      <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F5" s="46" t="str">
+      <c r="F5" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Close Gripper 2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6BE49541-453F-4E24-A4CF-35A2176B9DB5}"/>
@@ -3366,7 +3846,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3380,96 +3860,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
-      <c r="N1" s="33" t="s">
-        <v>15</v>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
+      <c r="N1" s="28" t="s">
+        <v>419</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="28">
+      <c r="C2" s="23">
         <v>1</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="24">
         <v>2</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="25">
         <v>3</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="24">
         <v>4</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="22">
         <v>5</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="22">
         <v>6</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="22">
         <v>7</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="22">
         <v>8</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="22">
         <v>9</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="24">
         <v>10</v>
       </c>
-      <c r="N2" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="46" t="s">
+      <c r="N2" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="21"/>
+      <c r="N3" s="34">
+        <v>1112</v>
+      </c>
+      <c r="O3" s="29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="26"/>
-      <c r="N3" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" s="46" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="31">
+      <c r="A4" s="71"/>
+      <c r="B4" s="26">
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3479,21 +3959,21 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="31"/>
-      <c r="N4" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="46" t="s">
-        <v>92</v>
+      <c r="L4" s="26"/>
+      <c r="N4" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="31">
+      <c r="A5" s="71"/>
+      <c r="B5" s="26">
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3503,21 +3983,21 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="31"/>
-      <c r="N5" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="46" t="s">
-        <v>94</v>
+      <c r="L5" s="26"/>
+      <c r="N5" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="31">
+      <c r="A6" s="71"/>
+      <c r="B6" s="26">
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -3527,21 +4007,21 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="31"/>
-      <c r="N6" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" s="46" t="s">
-        <v>96</v>
+      <c r="L6" s="26"/>
+      <c r="N6" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="31">
+      <c r="A7" s="71"/>
+      <c r="B7" s="26">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3551,21 +4031,21 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="31"/>
-      <c r="N7" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>98</v>
+      <c r="L7" s="26"/>
+      <c r="N7" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="31">
+      <c r="A8" s="71"/>
+      <c r="B8" s="26">
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3575,21 +4055,21 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="31"/>
-      <c r="N8" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="46" t="s">
-        <v>100</v>
+      <c r="L8" s="26"/>
+      <c r="N8" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="31">
+      <c r="A9" s="71"/>
+      <c r="B9" s="26">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -3599,17 +4079,17 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="31"/>
-      <c r="N9" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" s="46" t="s">
-        <v>104</v>
+      <c r="L9" s="26"/>
+      <c r="N9" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="31">
+      <c r="A10" s="71"/>
+      <c r="B10" s="26">
         <v>8</v>
       </c>
       <c r="C10" s="11">
@@ -3623,17 +4103,17 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="31"/>
-      <c r="N10" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="O10" s="46" t="s">
-        <v>106</v>
+      <c r="L10" s="26"/>
+      <c r="N10" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="31">
+      <c r="A11" s="71"/>
+      <c r="B11" s="26">
         <v>9</v>
       </c>
       <c r="C11" s="11"/>
@@ -3645,42 +4125,42 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="31"/>
-      <c r="N11" s="51" t="s">
+      <c r="L11" s="26"/>
+      <c r="N11" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="72"/>
+      <c r="B12" s="27">
+        <v>10</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="27"/>
+      <c r="N12" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N13" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="O11" s="46" t="s">
+      <c r="O13" s="29" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="64"/>
-      <c r="B12" s="32">
-        <v>10</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="32"/>
-      <c r="N12" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12" s="46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N13" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" s="46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -3688,15 +4168,15 @@
         <v>0</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N15" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3713,8 +4193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410C8FEA-ADC6-4AAB-B3F9-4E4AF1D1071C}">
   <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3742,30 +4222,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="9" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="E1" s="68" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="I1" s="71" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
+      <c r="I1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
-      <c r="O1" s="74" t="s">
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="81"/>
+      <c r="O1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="76"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="84"/>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -3822,19 +4302,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
@@ -3848,19 +4328,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E4" s="11">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I4" s="11">
         <v>2</v>
@@ -3874,19 +4354,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" s="11">
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I5" s="11">
         <v>3</v>
@@ -3900,19 +4380,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" s="11">
         <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I6" s="11">
         <v>4</v>
@@ -3926,16 +4406,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="11">
         <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I7" s="11">
         <v>5</v>
@@ -3949,19 +4429,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E8" s="11">
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I8" s="11">
         <v>6</v>
@@ -3975,19 +4455,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="11">
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I9" s="11">
         <v>7</v>
@@ -4001,16 +4481,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" s="11">
         <v>8</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I10" s="11">
         <v>8</v>
@@ -4027,7 +4507,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I11" s="11">
         <v>9</v>
@@ -4041,19 +4521,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" s="11">
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I12" s="11">
         <v>10</v>
@@ -4067,19 +4547,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E13" s="11">
         <v>11</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I13" s="11">
         <v>11</v>
@@ -4093,19 +4573,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" s="11">
         <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I14" s="11">
         <v>12</v>
@@ -4119,16 +4599,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E15" s="11">
         <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I15" s="11">
         <v>13</v>
@@ -4142,16 +4622,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E16" s="11">
         <v>14</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I16" s="11">
         <v>14</v>
@@ -4165,16 +4645,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E17" s="11">
         <v>15</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I17" s="11">
         <v>15</v>
@@ -4191,10 +4671,10 @@
         <v>16</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I18" s="11">
         <v>16</v>
@@ -4211,7 +4691,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4222,7 +4702,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4233,7 +4713,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4241,19 +4721,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E22" s="11">
         <v>20</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4261,19 +4741,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E23" s="11">
         <v>21</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4281,19 +4761,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E24" s="11">
         <v>22</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4301,19 +4781,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E25" s="11">
         <v>23</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4321,10 +4801,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E26" s="11">
         <v>24</v>
@@ -4335,10 +4815,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E27" s="11">
         <v>25</v>
@@ -4349,10 +4829,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E28" s="11">
         <v>26</v>
@@ -4363,10 +4843,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E29" s="11">
         <v>27</v>
@@ -4380,10 +4860,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4394,10 +4874,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4408,10 +4888,10 @@
         <v>30</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4422,10 +4902,10 @@
         <v>31</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4444,10 +4924,10 @@
         <v>33</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4474,10 +4954,10 @@
         <v>36</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4488,10 +4968,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4502,10 +4982,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4516,10 +4996,10 @@
         <v>39</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4610,10 +5090,10 @@
         <v>50</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4624,10 +5104,10 @@
         <v>51</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4638,10 +5118,10 @@
         <v>52</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4652,10 +5132,10 @@
         <v>53</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4666,10 +5146,10 @@
         <v>54</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4680,10 +5160,10 @@
         <v>55</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4694,10 +5174,10 @@
         <v>56</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4708,10 +5188,10 @@
         <v>57</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4738,10 +5218,10 @@
         <v>60</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4752,10 +5232,10 @@
         <v>61</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4766,10 +5246,10 @@
         <v>62</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4780,10 +5260,10 @@
         <v>63</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4794,10 +5274,10 @@
         <v>64</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4805,10 +5285,10 @@
         <v>65</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4816,10 +5296,10 @@
         <v>66</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4827,10 +5307,10 @@
         <v>67</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4848,10 +5328,10 @@
         <v>70</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4859,10 +5339,10 @@
         <v>71</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4870,10 +5350,10 @@
         <v>72</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4881,10 +5361,10 @@
         <v>73</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4892,10 +5372,10 @@
         <v>74</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4903,10 +5383,10 @@
         <v>75</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4914,10 +5394,10 @@
         <v>76</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4925,10 +5405,10 @@
         <v>77</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4946,10 +5426,10 @@
         <v>80</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4957,10 +5437,10 @@
         <v>81</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4968,10 +5448,10 @@
         <v>82</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4979,10 +5459,10 @@
         <v>83</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4990,10 +5470,10 @@
         <v>84</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5001,10 +5481,10 @@
         <v>85</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5012,10 +5492,10 @@
         <v>86</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5023,10 +5503,10 @@
         <v>87</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5269,1351 +5749,1361 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37798DAD-5626-480D-81EB-46B28EEAE69B}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="3.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="3.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="3.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="3.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="3.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="3.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="17" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="P2" s="99"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="79"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="83" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
-        <v>2</v>
-      </c>
-      <c r="B3" s="84" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
-        <v>3</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
-        <v>4</v>
-      </c>
-      <c r="B5" s="84" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
-        <v>5</v>
-      </c>
-      <c r="B6" s="81" t="s">
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>27</v>
+      </c>
+      <c r="B28" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>28</v>
+      </c>
+      <c r="B29" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>29</v>
+      </c>
+      <c r="B30" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>30</v>
+      </c>
+      <c r="B31" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>31</v>
+      </c>
+      <c r="B32" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
+        <v>32</v>
+      </c>
+      <c r="B33" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
+        <v>33</v>
+      </c>
+      <c r="B34" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
+        <v>34</v>
+      </c>
+      <c r="B35" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
+        <v>35</v>
+      </c>
+      <c r="B36" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
+        <v>36</v>
+      </c>
+      <c r="B37" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
+        <v>37</v>
+      </c>
+      <c r="B38" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
+        <v>38</v>
+      </c>
+      <c r="B39" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="19">
+        <v>39</v>
+      </c>
+      <c r="B40" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
+        <v>40</v>
+      </c>
+      <c r="B41" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="19">
+        <v>41</v>
+      </c>
+      <c r="B42" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="19">
+        <v>42</v>
+      </c>
+      <c r="B43" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="19">
+        <v>43</v>
+      </c>
+      <c r="B44" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="19">
+        <v>44</v>
+      </c>
+      <c r="B45" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="19">
+        <v>45</v>
+      </c>
+      <c r="B46" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="19">
+        <v>46</v>
+      </c>
+      <c r="B47" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="19">
+        <v>47</v>
+      </c>
+      <c r="B48" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="19">
+        <v>48</v>
+      </c>
+      <c r="B49" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="19">
+        <v>49</v>
+      </c>
+      <c r="B50" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="19">
+        <v>50</v>
+      </c>
+      <c r="B51" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="19">
+        <v>51</v>
+      </c>
+      <c r="B52" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="90"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="19">
+        <v>52</v>
+      </c>
+      <c r="B53" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="19">
+        <v>53</v>
+      </c>
+      <c r="B54" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="19">
+        <v>54</v>
+      </c>
+      <c r="B55" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="19">
+        <v>55</v>
+      </c>
+      <c r="B56" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="90"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="19">
+        <v>56</v>
+      </c>
+      <c r="B57" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="19">
+        <v>57</v>
+      </c>
+      <c r="B58" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="19">
+        <v>58</v>
+      </c>
+      <c r="B59" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="19">
+        <v>59</v>
+      </c>
+      <c r="B60" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="19">
+        <v>60</v>
+      </c>
+      <c r="B61" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="19">
+        <v>61</v>
+      </c>
+      <c r="B62" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="19">
+        <v>62</v>
+      </c>
+      <c r="B63" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="19">
+        <v>63</v>
+      </c>
+      <c r="B64" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="90"/>
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="90"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="19">
+        <v>64</v>
+      </c>
+      <c r="B65" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="19">
+        <v>65</v>
+      </c>
+      <c r="B66" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="90"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="19">
         <v>66</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
-        <v>6</v>
-      </c>
-      <c r="B7" s="81" t="s">
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="19">
         <v>67</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
-        <v>7</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
-        <v>8</v>
-      </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
-        <v>9</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
-        <v>10</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
-        <v>11</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>12</v>
-      </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
-        <v>13</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <v>14</v>
-      </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
-        <v>15</v>
-      </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
-        <v>16</v>
-      </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
-        <v>17</v>
-      </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <v>18</v>
-      </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <v>19</v>
-      </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
-        <v>20</v>
-      </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
-        <v>21</v>
-      </c>
-      <c r="B22" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="24">
-        <v>22</v>
-      </c>
-      <c r="B23" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="24">
-        <v>24</v>
-      </c>
-      <c r="B25" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
-        <v>25</v>
-      </c>
-      <c r="B26" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
-        <v>26</v>
-      </c>
-      <c r="B27" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
-        <v>27</v>
-      </c>
-      <c r="B28" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
-        <v>28</v>
-      </c>
-      <c r="B29" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
-        <v>29</v>
-      </c>
-      <c r="B30" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
-        <v>30</v>
-      </c>
-      <c r="B31" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
-        <v>31</v>
-      </c>
-      <c r="B32" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
-        <v>32</v>
-      </c>
-      <c r="B33" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="24">
-        <v>33</v>
-      </c>
-      <c r="B34" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="24">
-        <v>34</v>
-      </c>
-      <c r="B35" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="24">
-        <v>35</v>
-      </c>
-      <c r="B36" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="24">
-        <v>36</v>
-      </c>
-      <c r="B37" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="24">
-        <v>37</v>
-      </c>
-      <c r="B38" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="24">
-        <v>38</v>
-      </c>
-      <c r="B39" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="24">
-        <v>39</v>
-      </c>
-      <c r="B40" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="24">
-        <v>40</v>
-      </c>
-      <c r="B41" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="24">
-        <v>41</v>
-      </c>
-      <c r="B42" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="24">
-        <v>42</v>
-      </c>
-      <c r="B43" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
-        <v>43</v>
-      </c>
-      <c r="B44" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="24">
-        <v>44</v>
-      </c>
-      <c r="B45" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="24">
-        <v>45</v>
-      </c>
-      <c r="B46" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="24">
-        <v>46</v>
-      </c>
-      <c r="B47" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="24">
-        <v>47</v>
-      </c>
-      <c r="B48" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="24">
-        <v>48</v>
-      </c>
-      <c r="B49" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="24">
-        <v>49</v>
-      </c>
-      <c r="B50" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="24">
-        <v>50</v>
-      </c>
-      <c r="B51" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="24">
-        <v>51</v>
-      </c>
-      <c r="B52" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="24">
-        <v>52</v>
-      </c>
-      <c r="B53" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="24">
-        <v>53</v>
-      </c>
-      <c r="B54" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="24">
-        <v>54</v>
-      </c>
-      <c r="B55" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="24">
-        <v>55</v>
-      </c>
-      <c r="B56" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="24">
-        <v>56</v>
-      </c>
-      <c r="B57" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="24">
-        <v>57</v>
-      </c>
-      <c r="B58" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="24">
-        <v>58</v>
-      </c>
-      <c r="B59" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="24">
-        <v>59</v>
-      </c>
-      <c r="B60" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>60</v>
-      </c>
-      <c r="B61" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="24">
-        <v>61</v>
-      </c>
-      <c r="B62" s="82" t="s">
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="90"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="19">
+        <v>68</v>
+      </c>
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="19">
         <v>69</v>
       </c>
-      <c r="C62" s="82"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="82"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="24">
-        <v>62</v>
-      </c>
-      <c r="B63" s="82" t="s">
+      <c r="B70" s="90"/>
+      <c r="C70" s="90"/>
+      <c r="D70" s="90"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="90"/>
+      <c r="G70" s="90"/>
+      <c r="H70" s="90"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="19">
         <v>70</v>
       </c>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="24">
-        <v>63</v>
-      </c>
-      <c r="B64" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="82"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="24">
-        <v>64</v>
-      </c>
-      <c r="B65" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="24">
-        <v>65</v>
-      </c>
-      <c r="B66" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="82"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="24">
-        <v>66</v>
-      </c>
-      <c r="B67" s="82"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="82"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="24">
-        <v>67</v>
-      </c>
-      <c r="B68" s="82"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="24">
-        <v>68</v>
-      </c>
-      <c r="B69" s="82"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="82"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="24">
-        <v>69</v>
-      </c>
-      <c r="B70" s="82"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="82"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="24">
-        <v>70</v>
-      </c>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="82"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="85"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="93"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="93"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="93"/>
+      <c r="H75" s="93"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="85"/>
-      <c r="C76" s="85"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="85"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="93"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="85"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="93"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="85"/>
-      <c r="C78" s="85"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="85"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="85"/>
-      <c r="H78" s="85"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="93"/>
+      <c r="G78" s="93"/>
+      <c r="H78" s="93"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
+      <c r="E79" s="93"/>
+      <c r="F79" s="93"/>
+      <c r="G79" s="93"/>
+      <c r="H79" s="93"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="85"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="85"/>
-      <c r="H80" s="85"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="93"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="93"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="85"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="85"/>
-      <c r="E81" s="85"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="85"/>
-      <c r="H81" s="85"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="93"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="93"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
+      <c r="B82" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="93"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="93"/>
+      <c r="G82" s="93"/>
+      <c r="H82" s="93"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="85"/>
-      <c r="H83" s="85"/>
+      <c r="B83" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="93"/>
+      <c r="H83" s="93"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="85"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="85"/>
-      <c r="G84" s="85"/>
-      <c r="H84" s="85"/>
+      <c r="B84" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="93"/>
+      <c r="D84" s="93"/>
+      <c r="E84" s="93"/>
+      <c r="F84" s="93"/>
+      <c r="G84" s="93"/>
+      <c r="H84" s="93"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="85"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="85"/>
-      <c r="F85" s="85"/>
-      <c r="G85" s="85"/>
-      <c r="H85" s="85"/>
+      <c r="B85" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="93"/>
+      <c r="D85" s="93"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="93"/>
+      <c r="H85" s="93"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
+      <c r="B86" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="93"/>
+      <c r="D86" s="93"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="93"/>
+      <c r="H86" s="93"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="85"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="93"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="93"/>
+      <c r="H87" s="93"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="85"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="93"/>
+      <c r="D88" s="93"/>
+      <c r="E88" s="93"/>
+      <c r="F88" s="93"/>
+      <c r="G88" s="93"/>
+      <c r="H88" s="93"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="85"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="85"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="93"/>
+      <c r="D89" s="93"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="93"/>
+      <c r="H89" s="93"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="85"/>
-      <c r="H90" s="85"/>
+      <c r="B90" s="93"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="93"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="93"/>
+      <c r="G90" s="93"/>
+      <c r="H90" s="93"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="85"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="85"/>
+      <c r="B91" s="93"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="93"/>
+      <c r="G91" s="93"/>
+      <c r="H91" s="93"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="85"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="93"/>
+      <c r="G92" s="93"/>
+      <c r="H92" s="93"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
+      <c r="B93" s="93"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="93"/>
+      <c r="E93" s="93"/>
+      <c r="F93" s="93"/>
+      <c r="G93" s="93"/>
+      <c r="H93" s="93"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="85"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="85"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="93"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="93"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="93"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="85"/>
-      <c r="C95" s="85"/>
-      <c r="D95" s="85"/>
-      <c r="E95" s="85"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="85"/>
-      <c r="H95" s="85"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="93"/>
+      <c r="E95" s="93"/>
+      <c r="F95" s="93"/>
+      <c r="G95" s="93"/>
+      <c r="H95" s="93"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="85"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="85"/>
-      <c r="H96" s="85"/>
+      <c r="B96" s="93"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="93"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="93"/>
+      <c r="G96" s="93"/>
+      <c r="H96" s="93"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="85"/>
-      <c r="C97" s="85"/>
-      <c r="D97" s="85"/>
-      <c r="E97" s="85"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="85"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="93"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="85"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="85"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="85"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="93"/>
+      <c r="D98" s="93"/>
+      <c r="E98" s="93"/>
+      <c r="F98" s="93"/>
+      <c r="G98" s="93"/>
+      <c r="H98" s="93"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="85"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="85"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="93"/>
+      <c r="D99" s="93"/>
+      <c r="E99" s="93"/>
+      <c r="F99" s="93"/>
+      <c r="G99" s="93"/>
+      <c r="H99" s="93"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="85"/>
-      <c r="C100" s="85"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="93"/>
+      <c r="D100" s="93"/>
+      <c r="E100" s="93"/>
+      <c r="F100" s="93"/>
+      <c r="G100" s="93"/>
+      <c r="H100" s="93"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="85"/>
-      <c r="E101" s="85"/>
-      <c r="F101" s="85"/>
-      <c r="G101" s="85"/>
-      <c r="H101" s="85"/>
+      <c r="B101" s="93"/>
+      <c r="C101" s="93"/>
+      <c r="D101" s="93"/>
+      <c r="E101" s="93"/>
+      <c r="F101" s="93"/>
+      <c r="G101" s="93"/>
+      <c r="H101" s="93"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{37798DAD-5626-480D-81EB-46B28EEAE69B}">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+  </autoFilter>
   <mergeCells count="101">
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B31:H31"/>
@@ -6727,7 +7217,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6736,11 +7226,11 @@
     <col min="2" max="2" width="70.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="51" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6854,7 +7344,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6863,12 +7353,12 @@
     <col min="2" max="2" width="70.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>371</v>
+      <c r="B1" s="15" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6876,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6981,272 +7471,540 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4581B8AA-D6A1-4C01-8DF6-04EAC77527C4}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="70.21875" style="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="96" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="97" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="97" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="97" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="97" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="97" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="97" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="97" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="97" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="34"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="97" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="97" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="34"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="97" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>383</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B31" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="49" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B32" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="B3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B34" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="B4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F4" s="51"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B35" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F5" s="51"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B36" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="B6" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" s="51"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B37" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="B7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F7" s="51"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B38" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F8" s="51"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B39" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="B9" t="s">
-        <v>305</v>
-      </c>
-      <c r="F9" s="51"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B40" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="B10" t="s">
-        <v>305</v>
-      </c>
-      <c r="F10" s="51"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B41" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="B11" t="s">
-        <v>305</v>
-      </c>
-      <c r="F11" s="51"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B42" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="B12" t="s">
-        <v>305</v>
-      </c>
-      <c r="F12" s="51"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B43" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="B13" t="s">
-        <v>305</v>
-      </c>
-      <c r="F13" s="51"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B44" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="B14" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" s="51"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B45" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="B15" t="s">
-        <v>306</v>
-      </c>
-      <c r="F15" s="51"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B46" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="B16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B47" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="B17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B48" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="B18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B49" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="B19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B50" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="B20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B51" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="B21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B52" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="B22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B53" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="B23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>302</v>
-      </c>
-      <c r="B24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B54" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="B25" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>304</v>
-      </c>
-      <c r="B26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>321</v>
-      </c>
-      <c r="B27" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>322</v>
-      </c>
-      <c r="B28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>323</v>
-      </c>
-      <c r="B29" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B30" t="s">
-        <v>320</v>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="98" t="s">
+        <v>410</v>
+      </c>
+      <c r="B57" s="97" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="98" t="s">
+        <v>454</v>
+      </c>
+      <c r="B58" s="95" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" s="95" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{4581B8AA-D6A1-4C01-8DF6-04EAC77527C4}"/>
+  <autoFilter ref="A1:B1" xr:uid="{4581B8AA-D6A1-4C01-8DF6-04EAC77527C4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B63">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7255,339 +8013,407 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A483EC0-1911-4E61-9B00-E71821A0DC18}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" style="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="96" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="B2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" t="s">
-        <v>314</v>
+      <c r="B5" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="B6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B14" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="B7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B15" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="B8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B16" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="B9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B17" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="B10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B18" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="B11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B19" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="B12" t="s">
-        <v>325</v>
-      </c>
-      <c r="C12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B20" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="B13" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B21" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="B14" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B22" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="B15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B23" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="B16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C16" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B24" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="B17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B25" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="B18" t="s">
-        <v>325</v>
-      </c>
-      <c r="C18" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B26" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="B19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B27" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="B20" t="s">
-        <v>325</v>
-      </c>
-      <c r="C20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B28" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="B21" t="s">
-        <v>325</v>
-      </c>
-      <c r="C21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B29" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="B22" t="s">
-        <v>325</v>
-      </c>
-      <c r="C22" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>343</v>
-      </c>
-      <c r="B23" t="s">
-        <v>325</v>
-      </c>
-      <c r="C23" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>344</v>
-      </c>
-      <c r="B24" t="s">
-        <v>325</v>
-      </c>
-      <c r="C24" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>345</v>
-      </c>
-      <c r="B25" t="s">
-        <v>325</v>
-      </c>
-      <c r="C25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>346</v>
-      </c>
-      <c r="B26" t="s">
-        <v>325</v>
-      </c>
-      <c r="C26" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>347</v>
-      </c>
-      <c r="B27" t="s">
-        <v>325</v>
-      </c>
-      <c r="C27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>348</v>
-      </c>
-      <c r="B28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C28" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>349</v>
-      </c>
-      <c r="B29" t="s">
-        <v>325</v>
-      </c>
-      <c r="C29" t="s">
-        <v>350</v>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="49" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="C31" s="95" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>456</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{7A483EC0-1911-4E61-9B00-E71821A0DC18}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MH_001_v1/Info célula.xlsx
+++ b/MH_001_v1/Info célula.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudo\Robótica\Kuka\Programas\MH_001_v1 - (CAAS - Linha 1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Estudo\Robótica\Kuka\Programas\MH_001_v1 - (CAAS - Linha 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B563666A-596C-437C-967D-8E2496412384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A96D83-D053-4856-85BD-C6C0D8D26083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{B14CD665-A84C-457D-A793-CB1F498573CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{B14CD665-A84C-457D-A793-CB1F498573CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Processo" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="460">
   <si>
     <t>Número</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>Deixar a garra livre</t>
   </si>
   <si>
     <t>Open</t>
@@ -1446,6 +1443,15 @@
   </si>
   <si>
     <t>Informa se o Job em questão foi concluído com sucesso</t>
+  </si>
+  <si>
+    <t>Deixar gripper 01 livre</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Deixar gripper 02 livre</t>
   </si>
 </sst>
 </file>
@@ -1993,6 +1999,19 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2047,6 +2066,20 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2056,36 +2089,9 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B4EFE386-18C2-44AA-9A2A-4217DC88D1A0}"/>
@@ -2465,10 +2471,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>419</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -3037,7 +3043,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3092,21 +3098,21 @@
       <c r="M1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="94" t="s">
+      <c r="N1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="94"/>
+      <c r="O1" s="99"/>
       <c r="Q1" s="46" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T1" s="47" t="s">
         <v>14</v>
       </c>
       <c r="U1" s="48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -3147,13 +3153,13 @@
         <v>11</v>
       </c>
       <c r="R2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T2" s="3">
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -3191,13 +3197,13 @@
         <v>10</v>
       </c>
       <c r="R3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T3" s="3">
         <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -3229,13 +3235,13 @@
         <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T4" s="3">
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -3267,13 +3273,13 @@
         <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T5" s="3">
         <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -3302,7 +3308,7 @@
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -3331,7 +3337,7 @@
         <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -3350,8 +3356,8 @@
       <c r="M8" s="3">
         <v>7</v>
       </c>
-      <c r="N8" s="29" t="s">
-        <v>97</v>
+      <c r="N8" s="29">
+        <v>2121</v>
       </c>
       <c r="O8" s="29" t="s">
         <v>98</v>
@@ -3360,7 +3366,7 @@
         <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -3389,7 +3395,7 @@
         <v>8</v>
       </c>
       <c r="U9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -3418,7 +3424,7 @@
         <v>9</v>
       </c>
       <c r="U10" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -3435,7 +3441,7 @@
         <v>10</v>
       </c>
       <c r="U11" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -3452,7 +3458,7 @@
         <v>11</v>
       </c>
       <c r="U12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -3469,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="U13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -3479,7 +3485,7 @@
         <v>13</v>
       </c>
       <c r="U14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -3487,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="U15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -3495,7 +3501,7 @@
         <v>15</v>
       </c>
       <c r="U16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="20:21" x14ac:dyDescent="0.3">
@@ -3503,7 +3509,7 @@
         <v>16</v>
       </c>
       <c r="U17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="20:21" x14ac:dyDescent="0.3">
@@ -3511,7 +3517,7 @@
         <v>17</v>
       </c>
       <c r="U18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="20:21" x14ac:dyDescent="0.3">
@@ -3519,7 +3525,7 @@
         <v>18</v>
       </c>
       <c r="U19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="20:21" x14ac:dyDescent="0.3">
@@ -3527,7 +3533,7 @@
         <v>19</v>
       </c>
       <c r="U20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="20:21" x14ac:dyDescent="0.3">
@@ -3535,7 +3541,7 @@
         <v>20</v>
       </c>
       <c r="U21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="20:21" x14ac:dyDescent="0.3">
@@ -3543,7 +3549,7 @@
         <v>21</v>
       </c>
       <c r="U22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="20:21" x14ac:dyDescent="0.3">
@@ -3551,7 +3557,7 @@
         <v>22</v>
       </c>
       <c r="U23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="20:21" x14ac:dyDescent="0.3">
@@ -3559,7 +3565,7 @@
         <v>23</v>
       </c>
       <c r="U24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="20:21" x14ac:dyDescent="0.3">
@@ -3567,7 +3573,7 @@
         <v>24</v>
       </c>
       <c r="U25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="20:21" x14ac:dyDescent="0.3">
@@ -3575,7 +3581,7 @@
         <v>25</v>
       </c>
       <c r="U26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="20:21" x14ac:dyDescent="0.3">
@@ -3583,7 +3589,7 @@
         <v>26</v>
       </c>
       <c r="U27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="20:21" x14ac:dyDescent="0.3">
@@ -3591,7 +3597,7 @@
         <v>27</v>
       </c>
       <c r="U28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="20:21" x14ac:dyDescent="0.3">
@@ -3599,7 +3605,7 @@
         <v>28</v>
       </c>
       <c r="U29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="20:21" x14ac:dyDescent="0.3">
@@ -3607,7 +3613,7 @@
         <v>29</v>
       </c>
       <c r="U30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="20:21" x14ac:dyDescent="0.3">
@@ -3615,7 +3621,7 @@
         <v>30</v>
       </c>
       <c r="U31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="20:21" x14ac:dyDescent="0.3">
@@ -3623,7 +3629,7 @@
         <v>31</v>
       </c>
       <c r="U32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="20:21" x14ac:dyDescent="0.3">
@@ -3631,7 +3637,7 @@
         <v>32</v>
       </c>
       <c r="U33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="20:21" x14ac:dyDescent="0.3">
@@ -3639,7 +3645,7 @@
         <v>33</v>
       </c>
       <c r="U34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="20:21" x14ac:dyDescent="0.3">
@@ -3647,7 +3653,7 @@
         <v>34</v>
       </c>
       <c r="U35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="20:21" x14ac:dyDescent="0.3">
@@ -3655,7 +3661,7 @@
         <v>35</v>
       </c>
       <c r="U36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="20:21" x14ac:dyDescent="0.3">
@@ -3663,7 +3669,7 @@
         <v>36</v>
       </c>
       <c r="U37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3704,13 +3710,13 @@
         <v>14</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3724,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="29" t="str">
         <f>CONCATENATE(A2,C2)</f>
@@ -3746,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" ref="E3:E5" si="0">CONCATENATE(A3,C3)</f>
@@ -3768,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="29" t="str">
         <f t="shared" si="0"/>
@@ -3790,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
@@ -3843,10 +3849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC211B0-E57E-43C0-9445-9B09693D575D}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3860,23 +3866,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="69"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
       <c r="N1" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>419</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3918,7 +3924,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="21">
@@ -3944,12 +3950,12 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>85</v>
+      <c r="C4" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3968,12 +3974,12 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="26">
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3992,12 +3998,12 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="26">
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -4016,12 +4022,12 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="26">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -4040,12 +4046,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="26">
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -4064,12 +4070,12 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="26">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -4088,12 +4094,12 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="11">
-        <v>0</v>
+      <c r="C10" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4112,11 +4118,13 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4134,7 +4142,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="27">
         <v>10</v>
       </c>
@@ -4176,7 +4184,15 @@
         <v>109</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>110</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N16" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -4222,30 +4238,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="9" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="E1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
-      <c r="I1" s="79" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
+      <c r="I1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-      <c r="O1" s="82" t="s">
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+      <c r="O1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="84"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -4302,19 +4318,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
@@ -4328,19 +4344,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="E4" s="11">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="I4" s="11">
         <v>2</v>
@@ -4354,19 +4370,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="E5" s="11">
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="I5" s="11">
         <v>3</v>
@@ -4380,19 +4396,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="E6" s="11">
         <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="I6" s="11">
         <v>4</v>
@@ -4406,16 +4422,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="E7" s="11">
         <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I7" s="11">
         <v>5</v>
@@ -4429,19 +4445,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="E8" s="11">
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="I8" s="11">
         <v>6</v>
@@ -4455,19 +4471,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="E9" s="11">
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="I9" s="11">
         <v>7</v>
@@ -4481,16 +4497,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="11">
         <v>8</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="I10" s="11">
         <v>8</v>
@@ -4507,7 +4523,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I11" s="11">
         <v>9</v>
@@ -4521,19 +4537,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="11">
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="I12" s="11">
         <v>10</v>
@@ -4547,19 +4563,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="11">
         <v>11</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="I13" s="11">
         <v>11</v>
@@ -4573,19 +4589,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="11">
         <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="I14" s="11">
         <v>12</v>
@@ -4599,16 +4615,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" s="11">
         <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I15" s="11">
         <v>13</v>
@@ -4622,16 +4638,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" s="11">
         <v>14</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I16" s="11">
         <v>14</v>
@@ -4645,16 +4661,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="11">
         <v>15</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I17" s="11">
         <v>15</v>
@@ -4671,10 +4687,10 @@
         <v>16</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="I18" s="11">
         <v>16</v>
@@ -4691,7 +4707,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4702,7 +4718,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4713,7 +4729,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4721,19 +4737,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E22" s="11">
         <v>20</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4741,19 +4757,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E23" s="11">
         <v>21</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4761,19 +4777,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E24" s="11">
         <v>22</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4781,19 +4797,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E25" s="11">
         <v>23</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4801,10 +4817,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E26" s="11">
         <v>24</v>
@@ -4815,10 +4831,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E27" s="11">
         <v>25</v>
@@ -4829,10 +4845,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E28" s="11">
         <v>26</v>
@@ -4843,10 +4859,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E29" s="11">
         <v>27</v>
@@ -4860,10 +4876,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4874,10 +4890,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4888,10 +4904,10 @@
         <v>30</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4902,10 +4918,10 @@
         <v>31</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4924,10 +4940,10 @@
         <v>33</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4954,10 +4970,10 @@
         <v>36</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4968,10 +4984,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4982,10 +4998,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4996,10 +5012,10 @@
         <v>39</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5090,10 +5106,10 @@
         <v>50</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5104,10 +5120,10 @@
         <v>51</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5118,10 +5134,10 @@
         <v>52</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5132,10 +5148,10 @@
         <v>53</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5146,10 +5162,10 @@
         <v>54</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5160,10 +5176,10 @@
         <v>55</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5174,10 +5190,10 @@
         <v>56</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5188,10 +5204,10 @@
         <v>57</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5218,10 +5234,10 @@
         <v>60</v>
       </c>
       <c r="F62" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5232,10 +5248,10 @@
         <v>61</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5246,10 +5262,10 @@
         <v>62</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5260,10 +5276,10 @@
         <v>63</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5274,10 +5290,10 @@
         <v>64</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5285,10 +5301,10 @@
         <v>65</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5296,10 +5312,10 @@
         <v>66</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5307,10 +5323,10 @@
         <v>67</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5328,10 +5344,10 @@
         <v>70</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5339,10 +5355,10 @@
         <v>71</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5350,10 +5366,10 @@
         <v>72</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5361,10 +5377,10 @@
         <v>73</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5372,10 +5388,10 @@
         <v>74</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5383,10 +5399,10 @@
         <v>75</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5394,10 +5410,10 @@
         <v>76</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5405,10 +5421,10 @@
         <v>77</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5426,10 +5442,10 @@
         <v>80</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5437,10 +5453,10 @@
         <v>81</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5448,10 +5464,10 @@
         <v>82</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5459,10 +5475,10 @@
         <v>83</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5470,10 +5486,10 @@
         <v>84</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5481,10 +5497,10 @@
         <v>85</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5492,10 +5508,10 @@
         <v>86</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5503,10 +5519,10 @@
         <v>87</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5751,8 +5767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37798DAD-5626-480D-81EB-46B28EEAE69B}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5772,478 +5788,478 @@
       <c r="A1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="P2" s="71"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>29</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>30</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>31</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>32</v>
       </c>
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>33</v>
       </c>
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>34</v>
       </c>
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>35</v>
       </c>
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
@@ -6729,371 +6745,371 @@
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="93"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="93"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="92"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="93"/>
-      <c r="C73" s="93"/>
-      <c r="D73" s="93"/>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="93"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="92"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="93"/>
-      <c r="C74" s="93"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="93"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="93"/>
-      <c r="H74" s="93"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="93"/>
-      <c r="C75" s="93"/>
-      <c r="D75" s="93"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="93"/>
-      <c r="H75" s="93"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="92"/>
+      <c r="H75" s="92"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="93"/>
-      <c r="C76" s="93"/>
-      <c r="D76" s="93"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="93"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="92"/>
+      <c r="H76" s="92"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="93"/>
-      <c r="C77" s="93"/>
-      <c r="D77" s="93"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="93"/>
-      <c r="H77" s="93"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="92"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="93"/>
-      <c r="C78" s="93"/>
-      <c r="D78" s="93"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="93"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="93"/>
-      <c r="C79" s="93"/>
-      <c r="D79" s="93"/>
-      <c r="E79" s="93"/>
-      <c r="F79" s="93"/>
-      <c r="G79" s="93"/>
-      <c r="H79" s="93"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="92"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="93"/>
-      <c r="C80" s="93"/>
-      <c r="D80" s="93"/>
-      <c r="E80" s="93"/>
-      <c r="F80" s="93"/>
-      <c r="G80" s="93"/>
-      <c r="H80" s="93"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="92"/>
+      <c r="G80" s="92"/>
+      <c r="H80" s="92"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="93"/>
-      <c r="C81" s="93"/>
-      <c r="D81" s="93"/>
-      <c r="E81" s="93"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="93"/>
-      <c r="H81" s="93"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="92"/>
+      <c r="G81" s="92"/>
+      <c r="H81" s="92"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="93" t="s">
+      <c r="B82" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="93"/>
-      <c r="D82" s="93"/>
-      <c r="E82" s="93"/>
-      <c r="F82" s="93"/>
-      <c r="G82" s="93"/>
-      <c r="H82" s="93"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="92"/>
+      <c r="F82" s="92"/>
+      <c r="G82" s="92"/>
+      <c r="H82" s="92"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="93" t="s">
+      <c r="B83" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="93"/>
-      <c r="D83" s="93"/>
-      <c r="E83" s="93"/>
-      <c r="F83" s="93"/>
-      <c r="G83" s="93"/>
-      <c r="H83" s="93"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="92"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="93" t="s">
+      <c r="B84" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="C84" s="93"/>
-      <c r="D84" s="93"/>
-      <c r="E84" s="93"/>
-      <c r="F84" s="93"/>
-      <c r="G84" s="93"/>
-      <c r="H84" s="93"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="92"/>
+      <c r="G84" s="92"/>
+      <c r="H84" s="92"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="93" t="s">
+      <c r="B85" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C85" s="93"/>
-      <c r="D85" s="93"/>
-      <c r="E85" s="93"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="93"/>
-      <c r="H85" s="93"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="92"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="93" t="s">
+      <c r="B86" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="93"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="93"/>
-      <c r="H86" s="93"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="92"/>
+      <c r="H86" s="92"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="93"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="93"/>
-      <c r="E87" s="93"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="93"/>
-      <c r="H87" s="93"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="92"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="93"/>
-      <c r="C88" s="93"/>
-      <c r="D88" s="93"/>
-      <c r="E88" s="93"/>
-      <c r="F88" s="93"/>
-      <c r="G88" s="93"/>
-      <c r="H88" s="93"/>
+      <c r="B88" s="92"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="92"/>
+      <c r="E88" s="92"/>
+      <c r="F88" s="92"/>
+      <c r="G88" s="92"/>
+      <c r="H88" s="92"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="93"/>
-      <c r="C89" s="93"/>
-      <c r="D89" s="93"/>
-      <c r="E89" s="93"/>
-      <c r="F89" s="93"/>
-      <c r="G89" s="93"/>
-      <c r="H89" s="93"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="92"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="93"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="93"/>
-      <c r="E90" s="93"/>
-      <c r="F90" s="93"/>
-      <c r="G90" s="93"/>
-      <c r="H90" s="93"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="92"/>
+      <c r="G90" s="92"/>
+      <c r="H90" s="92"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="93"/>
-      <c r="C91" s="93"/>
-      <c r="D91" s="93"/>
-      <c r="E91" s="93"/>
-      <c r="F91" s="93"/>
-      <c r="G91" s="93"/>
-      <c r="H91" s="93"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="92"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="92"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="93"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="93"/>
-      <c r="E92" s="93"/>
-      <c r="F92" s="93"/>
-      <c r="G92" s="93"/>
-      <c r="H92" s="93"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="92"/>
+      <c r="H92" s="92"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="93"/>
-      <c r="C93" s="93"/>
-      <c r="D93" s="93"/>
-      <c r="E93" s="93"/>
-      <c r="F93" s="93"/>
-      <c r="G93" s="93"/>
-      <c r="H93" s="93"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="92"/>
+      <c r="G93" s="92"/>
+      <c r="H93" s="92"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="93"/>
-      <c r="C94" s="93"/>
-      <c r="D94" s="93"/>
-      <c r="E94" s="93"/>
-      <c r="F94" s="93"/>
-      <c r="G94" s="93"/>
-      <c r="H94" s="93"/>
+      <c r="B94" s="92"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="92"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="92"/>
+      <c r="H94" s="92"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="93"/>
-      <c r="C95" s="93"/>
-      <c r="D95" s="93"/>
-      <c r="E95" s="93"/>
-      <c r="F95" s="93"/>
-      <c r="G95" s="93"/>
-      <c r="H95" s="93"/>
+      <c r="B95" s="92"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="92"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="93"/>
-      <c r="C96" s="93"/>
-      <c r="D96" s="93"/>
-      <c r="E96" s="93"/>
-      <c r="F96" s="93"/>
-      <c r="G96" s="93"/>
-      <c r="H96" s="93"/>
+      <c r="B96" s="92"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="92"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="92"/>
+      <c r="H96" s="92"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="93"/>
-      <c r="C97" s="93"/>
-      <c r="D97" s="93"/>
-      <c r="E97" s="93"/>
-      <c r="F97" s="93"/>
-      <c r="G97" s="93"/>
-      <c r="H97" s="93"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="92"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="93"/>
-      <c r="C98" s="93"/>
-      <c r="D98" s="93"/>
-      <c r="E98" s="93"/>
-      <c r="F98" s="93"/>
-      <c r="G98" s="93"/>
-      <c r="H98" s="93"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="92"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="93"/>
-      <c r="C99" s="93"/>
-      <c r="D99" s="93"/>
-      <c r="E99" s="93"/>
-      <c r="F99" s="93"/>
-      <c r="G99" s="93"/>
-      <c r="H99" s="93"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="92"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="93"/>
-      <c r="C100" s="93"/>
-      <c r="D100" s="93"/>
-      <c r="E100" s="93"/>
-      <c r="F100" s="93"/>
-      <c r="G100" s="93"/>
-      <c r="H100" s="93"/>
+      <c r="B100" s="92"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="93"/>
-      <c r="C101" s="93"/>
-      <c r="D101" s="93"/>
-      <c r="E101" s="93"/>
-      <c r="F101" s="93"/>
-      <c r="G101" s="93"/>
-      <c r="H101" s="93"/>
+      <c r="B101" s="92"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="92"/>
+      <c r="H101" s="92"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{37798DAD-5626-480D-81EB-46B28EEAE69B}">
@@ -7105,6 +7121,83 @@
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="101">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B32:H32"/>
@@ -7129,83 +7222,6 @@
     <mergeCell ref="B80:H80"/>
     <mergeCell ref="B81:H81"/>
     <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7344,7 +7360,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7358,7 +7374,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7484,519 +7500,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="68" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>381</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>380</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="69" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
         <v>398</v>
       </c>
-      <c r="B4" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
+      <c r="B5" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="69" t="s">
         <v>399</v>
       </c>
-      <c r="B5" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="34"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="97" t="s">
+      <c r="B6" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+      <c r="B7" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="B8" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="69" t="s">
         <v>402</v>
       </c>
-      <c r="B8" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="97" t="s">
+      <c r="B9" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="69" t="s">
         <v>403</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="97" t="s">
+      <c r="B10" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="69" t="s">
         <v>404</v>
       </c>
-      <c r="B10" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="97" t="s">
+      <c r="B11" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="B11" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="97" t="s">
+      <c r="B12" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="34"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="69" t="s">
         <v>406</v>
       </c>
-      <c r="B12" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="97" t="s">
+      <c r="B13" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="69" t="s">
         <v>407</v>
       </c>
-      <c r="B13" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="97" t="s">
+      <c r="B14" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="34"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="69" t="s">
         <v>408</v>
       </c>
-      <c r="B14" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
-        <v>409</v>
-      </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="69" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
-        <v>371</v>
-      </c>
-      <c r="B17" s="95" t="s">
-        <v>446</v>
+        <v>370</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>372</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>374</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
-        <v>383</v>
-      </c>
-      <c r="B25" s="95" t="s">
-        <v>438</v>
+        <v>382</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" s="49" t="s">
         <v>367</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B52" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="B55" s="49" t="s">
         <v>365</v>
-      </c>
-      <c r="B55" s="49" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="B56" s="49" t="s">
         <v>369</v>
       </c>
-      <c r="B56" s="49" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="98" t="s">
+      <c r="A57" s="70" t="s">
+        <v>409</v>
+      </c>
+      <c r="B57" s="69" t="s">
         <v>410</v>
       </c>
-      <c r="B57" s="97" t="s">
-        <v>411</v>
-      </c>
     </row>
     <row r="58" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="98" t="s">
+      <c r="A58" s="70" t="s">
+        <v>453</v>
+      </c>
+      <c r="B58" s="67" t="s">
         <v>454</v>
-      </c>
-      <c r="B58" s="95" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="B63" s="95" t="s">
-        <v>444</v>
+        <v>275</v>
+      </c>
+      <c r="B63" s="67" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -8027,388 +8043,388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96" t="s">
-        <v>304</v>
-      </c>
-      <c r="C1" s="96" t="s">
+      <c r="B1" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>443</v>
+      <c r="C2" s="67" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>440</v>
+        <v>305</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="95" t="s">
-        <v>441</v>
+        <v>305</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="95" t="s">
-        <v>442</v>
+        <v>305</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29" s="49" t="s">
         <v>341</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="49" t="s">
         <v>396</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="49" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" s="67" t="s">
         <v>412</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="C31" s="95" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B32" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="C32" s="49" t="s">
         <v>416</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>415</v>
       </c>
-      <c r="B33" s="49" t="s">
-        <v>416</v>
-      </c>
       <c r="C33" s="49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C34" s="49" t="s">
         <v>452</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>455</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="C35" s="49" t="s">
         <v>456</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>457</v>
       </c>
     </row>
   </sheetData>
